--- a/Hiroshima/GameSound参考/どれがいいかな？.xlsx
+++ b/Hiroshima/GameSound参考/どれがいいかな？.xlsx
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,10 +549,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +868,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,8 +986,8 @@
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
@@ -1046,35 +1052,35 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -1086,31 +1092,31 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -1122,13 +1128,13 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
@@ -1140,13 +1146,13 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -1158,13 +1164,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -1176,13 +1182,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
@@ -1199,7 +1205,7 @@
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1210,7 +1216,7 @@
       <c r="A20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -1243,7 +1249,7 @@
       <c r="A23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1265,7 +1271,7 @@
       <c r="A25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>

--- a/Hiroshima/GameSound参考/どれがいいかな？.xlsx
+++ b/Hiroshima/GameSound参考/どれがいいかな？.xlsx
@@ -504,6 +504,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,7 +868,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,15 +881,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -912,15 +912,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="10"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
@@ -986,7 +986,7 @@
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="48"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1003,15 +1003,15 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
       <c r="I8" s="24" t="s">
         <v>6</v>
       </c>
@@ -1052,15 +1052,15 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
@@ -1072,15 +1072,15 @@
       <c r="E11" s="26"/>
       <c r="F11" s="27"/>
       <c r="G11" s="28"/>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -1092,13 +1092,13 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
@@ -1110,13 +1110,13 @@
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -1128,31 +1128,31 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -1164,13 +1164,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -1182,13 +1182,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
@@ -1235,15 +1235,15 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">

--- a/Hiroshima/GameSound参考/どれがいいかな？.xlsx
+++ b/Hiroshima/GameSound参考/どれがいいかな？.xlsx
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,6 +507,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,7 +561,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,15 +899,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -912,15 +930,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="10"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
@@ -987,11 +1005,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="11"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="I7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1003,15 +1021,15 @@
       <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
       <c r="I8" s="24" t="s">
         <v>6</v>
       </c>
@@ -1052,35 +1070,35 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="10"/>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="18"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="28"/>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -1092,13 +1110,13 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="10"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
@@ -1110,13 +1128,13 @@
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
       <c r="G13" s="28"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -1128,31 +1146,31 @@
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -1164,13 +1182,13 @@
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
@@ -1182,13 +1200,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="10"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
@@ -1206,8 +1224,8 @@
         <v>5</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="10"/>
@@ -1217,9 +1235,9 @@
         <v>6</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
     </row>
@@ -1235,23 +1253,23 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="21"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23"/>
@@ -1293,7 +1311,7 @@
       <c r="A27" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
@@ -1304,9 +1322,9 @@
       <c r="A28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
